--- a/presentation_raw_data.xlsx
+++ b/presentation_raw_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MagnifyDataset\resultData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3250C146-136C-4E73-966E-A706AA55391A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AA52F2-091D-421A-98FA-E66F08EF640E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{EA8493F5-C558-40B6-9E12-A348B6C60DA0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{EA8493F5-C558-40B6-9E12-A348B6C60DA0}"/>
   </bookViews>
   <sheets>
     <sheet name="EOO" sheetId="1" r:id="rId1"/>
@@ -236,10 +236,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="182" formatCode="0.00000"/>
-    <numFmt numFmtId="183" formatCode="0.0000"/>
-    <numFmt numFmtId="184" formatCode="0.000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.00000"/>
+    <numFmt numFmtId="178" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -302,13 +301,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1361,6 +1360,64 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>time!$A$65:$A$72</c:f>
@@ -1397,7 +1454,7 @@
             <c:numRef>
               <c:f>time!$B$65:$B$72</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2.3011000000000004</c:v>
@@ -1433,8 +1490,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1545,7 +1603,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3047,19 +3105,19 @@
             <c:numRef>
               <c:f>Time_all!$D$4:$G$4</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.43805999999999989</c:v>
+                  <c:v>0.28806000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.99778000000000011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.094100000000001</c:v>
+                  <c:v>4.8941000000000017</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.396799999999995</c:v>
+                  <c:v>15.846799999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3184,7 +3242,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6603,7 +6661,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>967740</xdr:colOff>
+      <xdr:colOff>462455</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
@@ -6726,15 +6784,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1005840</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>1140823</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47898</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>718457</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>148046</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7061,7 +7119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F498F21D-8EA4-412C-9F10-0A527E8F9B7C}">
   <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView topLeftCell="C56" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="C62" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
@@ -11801,7 +11859,7 @@
       <c r="B56" t="s">
         <v>18</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="3">
         <v>0.24571428571428572</v>
       </c>
     </row>
@@ -11809,7 +11867,7 @@
       <c r="B57" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="3">
         <v>0.32</v>
       </c>
     </row>
@@ -11817,7 +11875,7 @@
       <c r="B58" t="s">
         <v>20</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="3">
         <v>0.54</v>
       </c>
     </row>
@@ -11825,7 +11883,7 @@
       <c r="B59" t="s">
         <v>21</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="3">
         <v>0.28000000000000003</v>
       </c>
     </row>
@@ -11833,7 +11891,7 @@
       <c r="B60" t="s">
         <v>22</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="3">
         <v>0.18</v>
       </c>
     </row>
@@ -11841,7 +11899,7 @@
       <c r="B61" t="s">
         <v>23</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="3">
         <v>0.36</v>
       </c>
     </row>
@@ -11849,7 +11907,7 @@
       <c r="B62" t="s">
         <v>24</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="3">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -11857,7 +11915,7 @@
       <c r="B63" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="3">
         <v>0.12</v>
       </c>
     </row>
@@ -11872,8 +11930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F2649DD-6696-43A6-9091-57A978EFCA58}">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView topLeftCell="C56" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="B55" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -13070,31 +13128,31 @@
       <c r="A53" t="s">
         <v>4</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="4">
         <f>AVERAGE(B2:B51)</f>
         <v>2.3011000000000004</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="4">
         <f>AVERAGE(C2:C51)</f>
         <v>1.4116599999999999</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="4">
         <f>AVERAGE(D2:D51)</f>
         <v>2.2829399999999995</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="4">
         <f>AVERAGE(E2:E51)</f>
         <v>1.6184400000000003</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="4">
         <f>AVERAGE(F2:F51)</f>
         <v>1.7260799999999998</v>
       </c>
-      <c r="G53">
-        <f t="shared" ref="F53:H53" si="0">AVERAGE(G2:G51)</f>
+      <c r="G53" s="4">
+        <f t="shared" ref="G53:H53" si="0">AVERAGE(G2:G51)</f>
         <v>0.99778000000000011</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="4">
         <f t="shared" si="0"/>
         <v>1.0631400000000002</v>
       </c>
@@ -13108,7 +13166,7 @@
       <c r="A65" t="s">
         <v>19</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="4">
         <v>2.3011000000000004</v>
       </c>
     </row>
@@ -13116,7 +13174,7 @@
       <c r="A66" t="s">
         <v>20</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="4">
         <v>1.4116599999999999</v>
       </c>
     </row>
@@ -13124,7 +13182,7 @@
       <c r="A67" t="s">
         <v>21</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="4">
         <v>2.2829399999999995</v>
       </c>
     </row>
@@ -13132,7 +13190,7 @@
       <c r="A68" t="s">
         <v>22</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="4">
         <v>1.6184400000000003</v>
       </c>
     </row>
@@ -13140,7 +13198,7 @@
       <c r="A69" t="s">
         <v>23</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="4">
         <v>1.7260799999999998</v>
       </c>
     </row>
@@ -13148,7 +13206,7 @@
       <c r="A70" t="s">
         <v>24</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="4">
         <v>0.99778000000000011</v>
       </c>
     </row>
@@ -13156,7 +13214,7 @@
       <c r="A71" t="s">
         <v>25</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="4">
         <v>1.0631400000000002</v>
       </c>
     </row>
@@ -13164,7 +13222,7 @@
       <c r="A72" t="s">
         <v>4</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="4">
         <f>AVERAGE(B65:B71)</f>
         <v>1.6287342857142859</v>
       </c>
@@ -14424,7 +14482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E308D8-68FD-4A41-A37D-72A88CE51DF4}">
   <dimension ref="C1:G113"/>
   <sheetViews>
-    <sheetView topLeftCell="E7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="E16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -14476,16 +14534,16 @@
       <c r="C4" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
         <v>0.24571428571428572</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>0.04</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>0.86</v>
       </c>
     </row>
@@ -14493,16 +14551,16 @@
       <c r="C5" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>0.02</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>0.82</v>
       </c>
     </row>
@@ -15667,8 +15725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2997CC65-9B25-4657-B459-D98A3CEF0F19}">
   <dimension ref="C1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="D11" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -15719,17 +15777,17 @@
       <c r="C4" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="3">
-        <v>0.43805999999999989</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D4" s="4">
+        <v>0.28806000000000004</v>
+      </c>
+      <c r="E4" s="4">
         <v>0.99778000000000011</v>
       </c>
-      <c r="F4" s="3">
-        <v>7.094100000000001</v>
-      </c>
-      <c r="G4" s="3">
-        <v>17.396799999999995</v>
+      <c r="F4" s="4">
+        <v>4.8941000000000017</v>
+      </c>
+      <c r="G4" s="4">
+        <v>15.846799999999998</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
@@ -15745,571 +15803,572 @@
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D9">
-        <v>0.53100000000000003</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="F9">
-        <v>6.8120000000000003</v>
+        <v>4.6120000000000001</v>
       </c>
       <c r="G9">
-        <v>18.047999999999998</v>
+        <v>16.497999999999998</v>
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D10">
-        <v>0.44</v>
+        <v>0.29000000000000004</v>
       </c>
       <c r="F10">
-        <v>6.9269999999999996</v>
+        <v>4.7269999999999994</v>
       </c>
       <c r="G10">
-        <v>17.588000000000001</v>
+        <v>16.038</v>
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D11">
-        <v>0.435</v>
+        <v>0.28500000000000003</v>
       </c>
       <c r="F11">
-        <v>7.3159999999999998</v>
+        <v>5.1159999999999997</v>
       </c>
       <c r="G11">
-        <v>17.484000000000002</v>
+        <v>15.934000000000001</v>
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D12">
-        <v>0.433</v>
+        <v>0.28300000000000003</v>
       </c>
       <c r="F12">
-        <v>6.8719999999999999</v>
+        <v>4.6719999999999997</v>
       </c>
       <c r="G12">
-        <v>18.355</v>
+        <v>16.805</v>
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D13">
-        <v>0.433</v>
+        <v>0.28300000000000003</v>
       </c>
       <c r="F13">
-        <v>6.8259999999999996</v>
+        <v>4.6259999999999994</v>
       </c>
       <c r="G13">
-        <v>17.091000000000001</v>
+        <v>15.541</v>
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D14">
-        <v>0.43099999999999999</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="F14">
-        <v>6.8979999999999997</v>
+        <v>4.6979999999999995</v>
       </c>
       <c r="G14">
-        <v>17.443000000000001</v>
+        <v>15.893000000000001</v>
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D15">
-        <v>0.433</v>
+        <v>0.28300000000000003</v>
       </c>
       <c r="F15">
-        <v>6.95</v>
+        <v>4.75</v>
       </c>
       <c r="G15">
-        <v>17.416</v>
+        <v>15.866</v>
       </c>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D16">
-        <v>0.433</v>
+        <v>0.28300000000000003</v>
       </c>
       <c r="F16">
-        <v>7.0880000000000001</v>
+        <v>4.8879999999999999</v>
       </c>
       <c r="G16">
-        <v>17.295000000000002</v>
+        <v>15.745000000000001</v>
       </c>
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D17">
-        <v>0.433</v>
+        <v>0.28300000000000003</v>
       </c>
       <c r="F17">
-        <v>6.9320000000000004</v>
+        <v>4.7320000000000002</v>
       </c>
       <c r="G17">
-        <v>17.736999999999998</v>
+        <v>16.186999999999998</v>
       </c>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D18">
-        <v>0.33100000000000002</v>
+        <v>0.18100000000000002</v>
       </c>
       <c r="F18">
-        <v>7.4370000000000003</v>
+        <v>5.2370000000000001</v>
       </c>
       <c r="G18">
-        <v>17.486000000000001</v>
+        <v>15.936</v>
       </c>
     </row>
     <row r="19" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D19">
-        <v>0.438</v>
+        <v>0.28800000000000003</v>
       </c>
       <c r="F19">
-        <v>6.8140000000000001</v>
+        <v>4.6139999999999999</v>
       </c>
       <c r="G19">
-        <v>17.042000000000002</v>
+        <v>15.492000000000001</v>
       </c>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D20">
-        <v>0.437</v>
+        <v>0.28700000000000003</v>
       </c>
       <c r="F20">
-        <v>6.8239999999999998</v>
+        <v>4.6239999999999997</v>
       </c>
       <c r="G20">
-        <v>16.82</v>
+        <v>15.27</v>
       </c>
     </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D21">
-        <v>0.45</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="F21">
-        <v>7.4320000000000004</v>
+        <v>5.2320000000000002</v>
       </c>
       <c r="G21">
-        <v>17.021999999999998</v>
+        <v>15.471999999999998</v>
       </c>
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D22">
-        <v>0.45100000000000001</v>
+        <v>0.30100000000000005</v>
       </c>
       <c r="F22">
-        <v>7.016</v>
+        <v>4.8159999999999998</v>
       </c>
       <c r="G22">
-        <v>16.911999999999999</v>
+        <v>15.361999999999998</v>
       </c>
     </row>
     <row r="23" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D23">
-        <v>0.44500000000000001</v>
+        <v>0.29500000000000004</v>
       </c>
       <c r="F23">
-        <v>7.0869999999999997</v>
+        <v>4.8869999999999996</v>
       </c>
       <c r="G23">
-        <v>17.57</v>
+        <v>16.02</v>
       </c>
     </row>
     <row r="24" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D24">
-        <v>0.42699999999999999</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="F24">
-        <v>7.8840000000000003</v>
+        <v>5.6840000000000002</v>
       </c>
       <c r="G24">
-        <v>17.648</v>
+        <v>16.097999999999999</v>
       </c>
     </row>
     <row r="25" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D25">
-        <v>0.43</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F25">
-        <v>6.968</v>
+        <v>4.7679999999999998</v>
       </c>
       <c r="G25">
-        <v>17.056000000000001</v>
+        <v>15.506</v>
       </c>
     </row>
     <row r="26" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D26">
-        <v>0.434</v>
+        <v>0.28400000000000003</v>
       </c>
       <c r="F26">
-        <v>7.1449999999999996</v>
+        <v>4.9449999999999994</v>
       </c>
       <c r="G26">
-        <v>17.113</v>
+        <v>15.562999999999999</v>
       </c>
     </row>
     <row r="27" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D27">
-        <v>0.435</v>
+        <v>0.28500000000000003</v>
       </c>
       <c r="F27">
-        <v>7.1950000000000003</v>
+        <v>4.9950000000000001</v>
       </c>
       <c r="G27">
-        <v>17.875</v>
+        <v>16.324999999999999</v>
       </c>
     </row>
     <row r="28" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D28">
-        <v>0.35699999999999998</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="F28">
-        <v>7.5359999999999996</v>
+        <v>5.3359999999999994</v>
       </c>
       <c r="G28">
-        <v>18.123000000000001</v>
+        <v>16.573</v>
       </c>
     </row>
     <row r="29" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D29">
-        <v>0.432</v>
+        <v>0.28200000000000003</v>
       </c>
       <c r="F29">
-        <v>7.8159999999999998</v>
+        <v>5.6159999999999997</v>
       </c>
       <c r="G29">
-        <v>17.984000000000002</v>
+        <v>16.434000000000001</v>
       </c>
     </row>
     <row r="30" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D30">
-        <v>0.32800000000000001</v>
+        <v>0.17800000000000002</v>
       </c>
       <c r="F30">
-        <v>6.9829999999999997</v>
+        <v>4.7829999999999995</v>
       </c>
       <c r="G30">
-        <v>16.71</v>
+        <v>15.16</v>
       </c>
     </row>
     <row r="31" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D31">
-        <v>0.438</v>
+        <v>0.28800000000000003</v>
       </c>
       <c r="F31">
-        <v>7.2510000000000003</v>
+        <v>5.0510000000000002</v>
       </c>
       <c r="G31">
-        <v>17.905999999999999</v>
+        <v>16.355999999999998</v>
       </c>
     </row>
     <row r="32" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D32">
-        <v>0.44900000000000001</v>
+        <v>0.29900000000000004</v>
       </c>
       <c r="F32">
-        <v>7.3970000000000002</v>
+        <v>5.1970000000000001</v>
       </c>
       <c r="G32">
-        <v>17.041</v>
+        <v>15.491</v>
       </c>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D33">
-        <v>0.38200000000000001</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="F33">
-        <v>7.3789999999999996</v>
+        <v>5.1789999999999994</v>
       </c>
       <c r="G33">
-        <v>19.821000000000002</v>
+        <v>18.271000000000001</v>
       </c>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D34">
-        <v>0.48299999999999998</v>
+        <v>0.33299999999999996</v>
       </c>
       <c r="F34">
-        <v>7.4630000000000001</v>
+        <v>5.2629999999999999</v>
       </c>
       <c r="G34">
-        <v>17.074999999999999</v>
+        <v>15.524999999999999</v>
       </c>
     </row>
     <row r="35" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D35">
-        <v>0.315</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="F35">
-        <v>6.9059999999999997</v>
+        <v>4.7059999999999995</v>
       </c>
       <c r="G35">
-        <v>17.388000000000002</v>
+        <v>15.838000000000001</v>
       </c>
     </row>
     <row r="36" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D36">
-        <v>0.42899999999999999</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="F36">
-        <v>6.899</v>
+        <v>4.6989999999999998</v>
       </c>
       <c r="G36">
-        <v>17.286999999999999</v>
+        <v>15.736999999999998</v>
       </c>
     </row>
     <row r="37" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D37">
-        <v>0.32700000000000001</v>
+        <v>0.17700000000000002</v>
       </c>
       <c r="F37">
-        <v>7.0709999999999997</v>
+        <v>4.8709999999999996</v>
       </c>
       <c r="G37">
-        <v>17.417999999999999</v>
+        <v>15.867999999999999</v>
       </c>
     </row>
     <row r="38" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D38">
-        <v>0.42799999999999999</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="F38">
-        <v>7.1150000000000002</v>
+        <v>4.915</v>
       </c>
       <c r="G38">
-        <v>17.57</v>
+        <v>16.02</v>
       </c>
     </row>
     <row r="39" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D39">
-        <v>0.43099999999999999</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="F39">
-        <v>7.1349999999999998</v>
+        <v>4.9349999999999996</v>
       </c>
       <c r="G39">
-        <v>17.48</v>
+        <v>15.93</v>
       </c>
     </row>
     <row r="40" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D40">
-        <v>0.48199999999999998</v>
+        <v>0.33199999999999996</v>
       </c>
       <c r="F40">
-        <v>7.0540000000000003</v>
+        <v>4.8540000000000001</v>
       </c>
       <c r="G40">
-        <v>17.059999999999999</v>
+        <v>15.509999999999998</v>
       </c>
     </row>
     <row r="41" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D41">
-        <v>0.42599999999999999</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="F41">
-        <v>7.0090000000000003</v>
+        <v>4.8090000000000002</v>
       </c>
       <c r="G41">
-        <v>17.503</v>
+        <v>15.952999999999999</v>
       </c>
     </row>
     <row r="42" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D42">
-        <v>0.32400000000000001</v>
+        <v>0.17400000000000002</v>
       </c>
       <c r="F42">
-        <v>6.8609999999999998</v>
+        <v>4.6609999999999996</v>
       </c>
       <c r="G42">
-        <v>17.466999999999999</v>
+        <v>15.916999999999998</v>
       </c>
     </row>
     <row r="43" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D43">
-        <v>0.47299999999999998</v>
+        <v>0.32299999999999995</v>
       </c>
       <c r="F43">
-        <v>7.0410000000000004</v>
+        <v>4.8410000000000002</v>
       </c>
       <c r="G43">
-        <v>17.402999999999999</v>
+        <v>15.852999999999998</v>
       </c>
     </row>
     <row r="44" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D44">
-        <v>0.44400000000000001</v>
+        <v>0.29400000000000004</v>
       </c>
       <c r="F44">
-        <v>7.4619999999999997</v>
+        <v>5.2619999999999996</v>
       </c>
       <c r="G44">
-        <v>16.663</v>
+        <v>15.113</v>
       </c>
     </row>
     <row r="45" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D45">
-        <v>0.58599999999999997</v>
+        <v>0.43599999999999994</v>
       </c>
       <c r="F45">
-        <v>7.1130000000000004</v>
+        <v>4.9130000000000003</v>
       </c>
       <c r="G45">
-        <v>17.236000000000001</v>
+        <v>15.686</v>
       </c>
     </row>
     <row r="46" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D46">
-        <v>0.46600000000000003</v>
+        <v>0.31600000000000006</v>
       </c>
       <c r="F46">
-        <v>7.2190000000000003</v>
+        <v>5.0190000000000001</v>
       </c>
       <c r="G46">
-        <v>17.158000000000001</v>
+        <v>15.608000000000001</v>
       </c>
     </row>
     <row r="47" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D47">
-        <v>0.48</v>
+        <v>0.32999999999999996</v>
       </c>
       <c r="F47">
-        <v>6.9969999999999999</v>
+        <v>4.7969999999999997</v>
       </c>
       <c r="G47">
-        <v>17.190999999999999</v>
+        <v>15.640999999999998</v>
       </c>
     </row>
     <row r="48" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D48">
-        <v>0.48699999999999999</v>
+        <v>0.33699999999999997</v>
       </c>
       <c r="F48">
-        <v>7.1040000000000001</v>
+        <v>4.9039999999999999</v>
       </c>
       <c r="G48">
-        <v>17.238</v>
+        <v>15.687999999999999</v>
       </c>
     </row>
     <row r="49" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D49">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="F49">
-        <v>7.149</v>
+        <v>4.9489999999999998</v>
       </c>
       <c r="G49">
-        <v>17.18</v>
+        <v>15.629999999999999</v>
       </c>
     </row>
     <row r="50" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D50">
-        <v>0.45600000000000002</v>
+        <v>0.30600000000000005</v>
       </c>
       <c r="F50">
-        <v>7.0979999999999999</v>
+        <v>4.8979999999999997</v>
       </c>
       <c r="G50">
-        <v>17.167999999999999</v>
+        <v>15.617999999999999</v>
       </c>
     </row>
     <row r="51" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D51">
-        <v>0.505</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="F51">
-        <v>7.1749999999999998</v>
+        <v>4.9749999999999996</v>
       </c>
       <c r="G51">
-        <v>17.193999999999999</v>
+        <v>15.643999999999998</v>
       </c>
     </row>
     <row r="52" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D52">
-        <v>0.51900000000000002</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="F52">
-        <v>6.88</v>
+        <v>4.68</v>
       </c>
       <c r="G52">
-        <v>17.22</v>
+        <v>15.669999999999998</v>
       </c>
     </row>
     <row r="53" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D53">
-        <v>0.56699999999999995</v>
+        <v>0.41699999999999993</v>
       </c>
       <c r="F53">
-        <v>7.1340000000000003</v>
+        <v>4.9340000000000002</v>
       </c>
       <c r="G53">
-        <v>17.274000000000001</v>
+        <v>15.724</v>
       </c>
     </row>
     <row r="54" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D54">
-        <v>0.44800000000000001</v>
+        <v>0.29800000000000004</v>
       </c>
       <c r="F54">
-        <v>6.8440000000000003</v>
+        <v>4.6440000000000001</v>
       </c>
       <c r="G54">
-        <v>17.231000000000002</v>
+        <v>15.681000000000001</v>
       </c>
     </row>
     <row r="55" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D55">
-        <v>0.44400000000000001</v>
+        <v>0.29400000000000004</v>
       </c>
       <c r="F55">
-        <v>7.0460000000000003</v>
+        <v>4.8460000000000001</v>
       </c>
       <c r="G55">
-        <v>17.222000000000001</v>
+        <v>15.672000000000001</v>
       </c>
     </row>
     <row r="56" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D56">
-        <v>0.55400000000000005</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="F56">
-        <v>6.7110000000000003</v>
+        <v>4.5110000000000001</v>
       </c>
       <c r="G56">
-        <v>17.238</v>
+        <v>15.687999999999999</v>
       </c>
     </row>
     <row r="57" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D57">
-        <v>0.45200000000000001</v>
+        <v>0.30200000000000005</v>
       </c>
       <c r="F57">
-        <v>6.7080000000000002</v>
+        <v>4.508</v>
       </c>
       <c r="G57">
-        <v>17.22</v>
+        <v>15.669999999999998</v>
       </c>
     </row>
     <row r="58" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D58">
-        <v>0.46100000000000002</v>
+        <v>0.31100000000000005</v>
       </c>
       <c r="F58">
-        <v>6.726</v>
+        <v>4.5259999999999998</v>
       </c>
       <c r="G58">
-        <v>17.170000000000002</v>
+        <v>15.620000000000001</v>
       </c>
     </row>
     <row r="60" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D60">
         <f>AVERAGE(D9:D59)</f>
-        <v>0.43805999999999989</v>
+        <v>0.28806000000000004</v>
       </c>
       <c r="F60">
         <f>AVERAGE(F9:F59)</f>
-        <v>7.094100000000001</v>
+        <v>4.8941000000000017</v>
       </c>
       <c r="G60">
         <f>AVERAGE(G9:G59)</f>
-        <v>17.396799999999995</v>
+        <v>15.846799999999998</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/presentation_raw_data.xlsx
+++ b/presentation_raw_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MagnifyDataset\resultData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\NVIDIA Corporation\CUDA Samples\v10.1\2_Graphics\magnify_process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AA52F2-091D-421A-98FA-E66F08EF640E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A434139B-E8D8-4895-B58A-A7144751D152}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{EA8493F5-C558-40B6-9E12-A348B6C60DA0}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Overlap_all" sheetId="5" r:id="rId5"/>
     <sheet name="Time_all" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -238,7 +238,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00000"/>
-    <numFmt numFmtId="178" formatCode="0.000"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -304,7 +304,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1457,13 +1457,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.3011000000000004</c:v>
+                  <c:v>1.5211000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.4116599999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2829399999999995</c:v>
+                  <c:v>1.4329399999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.6184400000000003</c:v>
@@ -1478,7 +1478,7 @@
                   <c:v>1.0631400000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6287342857142859</c:v>
+                  <c:v>1.395877142857143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11930,8 +11930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F2649DD-6696-43A6-9091-57A978EFCA58}">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B55" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -11976,13 +11976,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1.637</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="C2">
         <v>1.796</v>
       </c>
       <c r="D2">
-        <v>2.41</v>
+        <v>1.56</v>
       </c>
       <c r="E2">
         <v>1.3460000000000001</v>
@@ -11999,13 +11999,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>2.367</v>
+        <v>1.587</v>
       </c>
       <c r="C3">
         <v>0.52400000000000002</v>
       </c>
       <c r="D3">
-        <v>2.2770000000000001</v>
+        <v>1.427</v>
       </c>
       <c r="E3">
         <v>2.2850000000000001</v>
@@ -12022,13 +12022,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>2.335</v>
+        <v>1.5549999999999999</v>
       </c>
       <c r="C4">
         <v>1.371</v>
       </c>
       <c r="D4">
-        <v>2.3380000000000001</v>
+        <v>1.488</v>
       </c>
       <c r="E4">
         <v>1.3839999999999999</v>
@@ -12045,13 +12045,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>2.3530000000000002</v>
+        <v>1.5730000000000002</v>
       </c>
       <c r="C5">
         <v>1.458</v>
       </c>
       <c r="D5">
-        <v>2.3940000000000001</v>
+        <v>1.544</v>
       </c>
       <c r="E5">
         <v>1.635</v>
@@ -12068,13 +12068,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>2.3450000000000002</v>
+        <v>1.5650000000000002</v>
       </c>
       <c r="C6">
         <v>1.19</v>
       </c>
       <c r="D6">
-        <v>2.04</v>
+        <v>1.19</v>
       </c>
       <c r="E6">
         <v>1.639</v>
@@ -12091,13 +12091,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>2.3380000000000001</v>
+        <v>1.5580000000000001</v>
       </c>
       <c r="C7">
         <v>1.629</v>
       </c>
       <c r="D7">
-        <v>1.5980000000000001</v>
+        <v>0.74800000000000011</v>
       </c>
       <c r="E7">
         <v>1.6859999999999999</v>
@@ -12114,13 +12114,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>2.3660000000000001</v>
+        <v>1.5860000000000001</v>
       </c>
       <c r="C8">
         <v>1.401</v>
       </c>
       <c r="D8">
-        <v>2.355</v>
+        <v>1.5049999999999999</v>
       </c>
       <c r="E8">
         <v>1.72</v>
@@ -12137,13 +12137,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>2.35</v>
+        <v>1.57</v>
       </c>
       <c r="C9">
         <v>0.999</v>
       </c>
       <c r="D9">
-        <v>2.2269999999999999</v>
+        <v>1.3769999999999998</v>
       </c>
       <c r="E9">
         <v>1.4570000000000001</v>
@@ -12160,13 +12160,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>1.732</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="C10">
         <v>1.4470000000000001</v>
       </c>
       <c r="D10">
-        <v>2.3540000000000001</v>
+        <v>1.504</v>
       </c>
       <c r="E10">
         <v>2.2610000000000001</v>
@@ -12183,13 +12183,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>2.355</v>
+        <v>1.575</v>
       </c>
       <c r="C11">
         <v>1.4259999999999999</v>
       </c>
       <c r="D11">
-        <v>2.38</v>
+        <v>1.5299999999999998</v>
       </c>
       <c r="E11">
         <v>2.081</v>
@@ -12206,13 +12206,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12">
-        <v>2.3690000000000002</v>
+        <v>1.5890000000000002</v>
       </c>
       <c r="C12">
         <v>1.5309999999999999</v>
       </c>
       <c r="D12">
-        <v>2.359</v>
+        <v>1.5089999999999999</v>
       </c>
       <c r="E12">
         <v>1.591</v>
@@ -12229,13 +12229,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13">
-        <v>1.891</v>
+        <v>1.111</v>
       </c>
       <c r="C13">
         <v>1.218</v>
       </c>
       <c r="D13">
-        <v>2.3809999999999998</v>
+        <v>1.5309999999999997</v>
       </c>
       <c r="E13">
         <v>1.417</v>
@@ -12252,13 +12252,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>2.347</v>
+        <v>1.5669999999999999</v>
       </c>
       <c r="C14">
         <v>0.86899999999999999</v>
       </c>
       <c r="D14">
-        <v>2.367</v>
+        <v>1.5169999999999999</v>
       </c>
       <c r="E14">
         <v>1.4610000000000001</v>
@@ -12275,13 +12275,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>2.343</v>
+        <v>1.5629999999999999</v>
       </c>
       <c r="C15">
         <v>1.1859999999999999</v>
       </c>
       <c r="D15">
-        <v>2.3809999999999998</v>
+        <v>1.5309999999999997</v>
       </c>
       <c r="E15">
         <v>1.585</v>
@@ -12298,13 +12298,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>2.3540000000000001</v>
+        <v>1.5740000000000001</v>
       </c>
       <c r="C16">
         <v>1.4490000000000001</v>
       </c>
       <c r="D16">
-        <v>2.254</v>
+        <v>1.4039999999999999</v>
       </c>
       <c r="E16">
         <v>1.5129999999999999</v>
@@ -12321,13 +12321,13 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17">
-        <v>2.4060000000000001</v>
+        <v>1.6260000000000001</v>
       </c>
       <c r="C17">
         <v>0.45100000000000001</v>
       </c>
       <c r="D17">
-        <v>2.2480000000000002</v>
+        <v>1.3980000000000001</v>
       </c>
       <c r="E17">
         <v>1.3340000000000001</v>
@@ -12344,13 +12344,13 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18">
-        <v>2.415</v>
+        <v>1.635</v>
       </c>
       <c r="C18">
         <v>1.3959999999999999</v>
       </c>
       <c r="D18">
-        <v>2.2519999999999998</v>
+        <v>1.4019999999999997</v>
       </c>
       <c r="E18">
         <v>1.4630000000000001</v>
@@ -12367,13 +12367,13 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19">
-        <v>2.3839999999999999</v>
+        <v>1.6039999999999999</v>
       </c>
       <c r="C19">
         <v>2.3029999999999999</v>
       </c>
       <c r="D19">
-        <v>2.2799999999999998</v>
+        <v>1.4299999999999997</v>
       </c>
       <c r="E19">
         <v>1.399</v>
@@ -12390,13 +12390,13 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20">
-        <v>2.4300000000000002</v>
+        <v>1.6500000000000001</v>
       </c>
       <c r="C20">
         <v>1.518</v>
       </c>
       <c r="D20">
-        <v>2.3639999999999999</v>
+        <v>1.5139999999999998</v>
       </c>
       <c r="E20">
         <v>2.2360000000000002</v>
@@ -12413,13 +12413,13 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21">
-        <v>2.407</v>
+        <v>1.627</v>
       </c>
       <c r="C21">
         <v>2.33</v>
       </c>
       <c r="D21">
-        <v>2.403</v>
+        <v>1.5529999999999999</v>
       </c>
       <c r="E21">
         <v>1.462</v>
@@ -12436,13 +12436,13 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22">
-        <v>1.8919999999999999</v>
+        <v>1.1119999999999999</v>
       </c>
       <c r="C22">
         <v>1.39</v>
       </c>
       <c r="D22">
-        <v>1.4890000000000001</v>
+        <v>0.63900000000000012</v>
       </c>
       <c r="E22">
         <v>1.3520000000000001</v>
@@ -12459,13 +12459,13 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23">
-        <v>2.0339999999999998</v>
+        <v>1.2539999999999998</v>
       </c>
       <c r="C23">
         <v>1.385</v>
       </c>
       <c r="D23">
-        <v>2.27</v>
+        <v>1.42</v>
       </c>
       <c r="E23">
         <v>1.661</v>
@@ -12482,13 +12482,13 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24">
-        <v>2.4159999999999999</v>
+        <v>1.6359999999999999</v>
       </c>
       <c r="C24">
         <v>1.3660000000000001</v>
       </c>
       <c r="D24">
-        <v>2.2269999999999999</v>
+        <v>1.3769999999999998</v>
       </c>
       <c r="E24">
         <v>1.3480000000000001</v>
@@ -12505,13 +12505,13 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25">
-        <v>2.4289999999999998</v>
+        <v>1.6489999999999998</v>
       </c>
       <c r="C25">
         <v>0.97599999999999998</v>
       </c>
       <c r="D25">
-        <v>2.806</v>
+        <v>1.956</v>
       </c>
       <c r="E25">
         <v>1.726</v>
@@ -12528,13 +12528,13 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26">
-        <v>2.4140000000000001</v>
+        <v>1.6340000000000001</v>
       </c>
       <c r="C26">
         <v>2.2829999999999999</v>
       </c>
       <c r="D26">
-        <v>2.3290000000000002</v>
+        <v>1.4790000000000001</v>
       </c>
       <c r="E26">
         <v>1.44</v>
@@ -12551,13 +12551,13 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27">
-        <v>2.4340000000000002</v>
+        <v>1.6540000000000001</v>
       </c>
       <c r="C27">
         <v>1.3740000000000001</v>
       </c>
       <c r="D27">
-        <v>2.2749999999999999</v>
+        <v>1.4249999999999998</v>
       </c>
       <c r="E27">
         <v>1.375</v>
@@ -12574,13 +12574,13 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28">
-        <v>2.3530000000000002</v>
+        <v>1.5730000000000002</v>
       </c>
       <c r="C28">
         <v>1.36</v>
       </c>
       <c r="D28">
-        <v>2.2690000000000001</v>
+        <v>1.419</v>
       </c>
       <c r="E28">
         <v>1.4630000000000001</v>
@@ -12597,13 +12597,13 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29">
-        <v>2.4159999999999999</v>
+        <v>1.6359999999999999</v>
       </c>
       <c r="C29">
         <v>1.415</v>
       </c>
       <c r="D29">
-        <v>2.2400000000000002</v>
+        <v>1.3900000000000001</v>
       </c>
       <c r="E29">
         <v>1.3520000000000001</v>
@@ -12620,13 +12620,13 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30">
-        <v>2.4279999999999999</v>
+        <v>1.6479999999999999</v>
       </c>
       <c r="C30">
         <v>1.415</v>
       </c>
       <c r="D30">
-        <v>2.2999999999999998</v>
+        <v>1.4499999999999997</v>
       </c>
       <c r="E30">
         <v>1.4419999999999999</v>
@@ -12643,13 +12643,13 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31">
-        <v>2.3860000000000001</v>
+        <v>1.6060000000000001</v>
       </c>
       <c r="C31">
         <v>0.72299999999999998</v>
       </c>
       <c r="D31">
-        <v>2.2610000000000001</v>
+        <v>1.411</v>
       </c>
       <c r="E31">
         <v>1.325</v>
@@ -12666,13 +12666,13 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32">
-        <v>2.3959999999999999</v>
+        <v>1.6159999999999999</v>
       </c>
       <c r="C32">
         <v>1.4830000000000001</v>
       </c>
       <c r="D32">
-        <v>2.2730000000000001</v>
+        <v>1.423</v>
       </c>
       <c r="E32">
         <v>2.13</v>
@@ -12689,13 +12689,13 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33">
-        <v>2.3940000000000001</v>
+        <v>1.6140000000000001</v>
       </c>
       <c r="C33">
         <v>1.3620000000000001</v>
       </c>
       <c r="D33">
-        <v>2.2429999999999999</v>
+        <v>1.3929999999999998</v>
       </c>
       <c r="E33">
         <v>1.7669999999999999</v>
@@ -12712,13 +12712,13 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34">
-        <v>2.399</v>
+        <v>1.619</v>
       </c>
       <c r="C34">
         <v>1.448</v>
       </c>
       <c r="D34">
-        <v>2.2839999999999998</v>
+        <v>1.4339999999999997</v>
       </c>
       <c r="E34">
         <v>1.4630000000000001</v>
@@ -12735,13 +12735,13 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35">
-        <v>1.9670000000000001</v>
+        <v>1.1870000000000001</v>
       </c>
       <c r="C35">
         <v>1.381</v>
       </c>
       <c r="D35">
-        <v>2.2639999999999998</v>
+        <v>1.4139999999999997</v>
       </c>
       <c r="E35">
         <v>2.3210000000000002</v>
@@ -12758,13 +12758,13 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36">
-        <v>2.2989999999999999</v>
+        <v>1.5189999999999999</v>
       </c>
       <c r="C36">
         <v>1.476</v>
       </c>
       <c r="D36">
-        <v>2.246</v>
+        <v>1.3959999999999999</v>
       </c>
       <c r="E36">
         <v>1.5069999999999999</v>
@@ -12781,13 +12781,13 @@
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37">
-        <v>2.3450000000000002</v>
+        <v>1.5650000000000002</v>
       </c>
       <c r="C37">
         <v>1.3580000000000001</v>
       </c>
       <c r="D37">
-        <v>2.2639999999999998</v>
+        <v>1.4139999999999997</v>
       </c>
       <c r="E37">
         <v>1.57</v>
@@ -12804,13 +12804,13 @@
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38">
-        <v>2.3010000000000002</v>
+        <v>1.5210000000000001</v>
       </c>
       <c r="C38">
         <v>1.4690000000000001</v>
       </c>
       <c r="D38">
-        <v>2.2599999999999998</v>
+        <v>1.4099999999999997</v>
       </c>
       <c r="E38">
         <v>2.3769999999999998</v>
@@ -12827,13 +12827,13 @@
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39">
-        <v>2.34</v>
+        <v>1.5599999999999998</v>
       </c>
       <c r="C39">
         <v>2.2669999999999999</v>
       </c>
       <c r="D39">
-        <v>2.2919999999999998</v>
+        <v>1.4419999999999997</v>
       </c>
       <c r="E39">
         <v>1.5149999999999999</v>
@@ -12850,13 +12850,13 @@
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40">
-        <v>2.2669999999999999</v>
+        <v>1.4869999999999999</v>
       </c>
       <c r="C40">
         <v>0.91800000000000004</v>
       </c>
       <c r="D40">
-        <v>2.1619999999999999</v>
+        <v>1.3119999999999998</v>
       </c>
       <c r="E40">
         <v>1.631</v>
@@ -12873,13 +12873,13 @@
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41">
-        <v>2.3359999999999999</v>
+        <v>1.5559999999999998</v>
       </c>
       <c r="C41">
         <v>0.52500000000000002</v>
       </c>
       <c r="D41">
-        <v>2.238</v>
+        <v>1.3879999999999999</v>
       </c>
       <c r="E41">
         <v>0.74299999999999999</v>
@@ -12896,13 +12896,13 @@
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42">
-        <v>3.03</v>
+        <v>2.25</v>
       </c>
       <c r="C42">
         <v>1.4159999999999999</v>
       </c>
       <c r="D42">
-        <v>2.278</v>
+        <v>1.4279999999999999</v>
       </c>
       <c r="E42">
         <v>1.2410000000000001</v>
@@ -12919,13 +12919,13 @@
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43">
-        <v>2.2410000000000001</v>
+        <v>1.4610000000000001</v>
       </c>
       <c r="C43">
         <v>1.45</v>
       </c>
       <c r="D43">
-        <v>2.2309999999999999</v>
+        <v>1.3809999999999998</v>
       </c>
       <c r="E43">
         <v>2.3239999999999998</v>
@@ -12942,13 +12942,13 @@
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44">
-        <v>2.3260000000000001</v>
+        <v>1.546</v>
       </c>
       <c r="C44">
         <v>0.82399999999999995</v>
       </c>
       <c r="D44">
-        <v>2.2709999999999999</v>
+        <v>1.4209999999999998</v>
       </c>
       <c r="E44">
         <v>1.39</v>
@@ -12965,13 +12965,13 @@
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45">
-        <v>2.3149999999999999</v>
+        <v>1.5349999999999999</v>
       </c>
       <c r="C45">
         <v>1.383</v>
       </c>
       <c r="D45">
-        <v>2.2759999999999998</v>
+        <v>1.4259999999999997</v>
       </c>
       <c r="E45">
         <v>1.946</v>
@@ -12988,13 +12988,13 @@
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46">
-        <v>2.331</v>
+        <v>1.5509999999999999</v>
       </c>
       <c r="C46">
         <v>0.56799999999999995</v>
       </c>
       <c r="D46">
-        <v>2.448</v>
+        <v>1.5979999999999999</v>
       </c>
       <c r="E46">
         <v>2.125</v>
@@ -13011,13 +13011,13 @@
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47">
-        <v>2.355</v>
+        <v>1.575</v>
       </c>
       <c r="C47">
         <v>3.5939999999999999</v>
       </c>
       <c r="D47">
-        <v>2.5510000000000002</v>
+        <v>1.7010000000000001</v>
       </c>
       <c r="E47">
         <v>1.427</v>
@@ -13034,13 +13034,13 @@
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48">
-        <v>2.302</v>
+        <v>1.522</v>
       </c>
       <c r="C48">
         <v>0.51400000000000001</v>
       </c>
       <c r="D48">
-        <v>2.4020000000000001</v>
+        <v>1.552</v>
       </c>
       <c r="E48">
         <v>1.62</v>
@@ -13057,13 +13057,13 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B49">
-        <v>2.3220000000000001</v>
+        <v>1.542</v>
       </c>
       <c r="C49">
         <v>2.355</v>
       </c>
       <c r="D49">
-        <v>2.3559999999999999</v>
+        <v>1.5059999999999998</v>
       </c>
       <c r="E49">
         <v>1.478</v>
@@ -13080,13 +13080,13 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B50">
-        <v>1.732</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="C50">
         <v>2.2360000000000002</v>
       </c>
       <c r="D50">
-        <v>2.3340000000000001</v>
+        <v>1.484</v>
       </c>
       <c r="E50">
         <v>1.508</v>
@@ -13103,13 +13103,13 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B51">
-        <v>2.331</v>
+        <v>1.5509999999999999</v>
       </c>
       <c r="C51">
         <v>1.377</v>
       </c>
       <c r="D51">
-        <v>2.3460000000000001</v>
+        <v>1.496</v>
       </c>
       <c r="E51">
         <v>1.4</v>
@@ -13130,7 +13130,7 @@
       </c>
       <c r="B53" s="4">
         <f>AVERAGE(B2:B51)</f>
-        <v>2.3011000000000004</v>
+        <v>1.5211000000000003</v>
       </c>
       <c r="C53" s="4">
         <f>AVERAGE(C2:C51)</f>
@@ -13138,7 +13138,7 @@
       </c>
       <c r="D53" s="4">
         <f>AVERAGE(D2:D51)</f>
-        <v>2.2829399999999995</v>
+        <v>1.4329399999999999</v>
       </c>
       <c r="E53" s="4">
         <f>AVERAGE(E2:E51)</f>
@@ -13167,7 +13167,7 @@
         <v>19</v>
       </c>
       <c r="B65" s="4">
-        <v>2.3011000000000004</v>
+        <v>1.5211000000000003</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -13183,7 +13183,7 @@
         <v>21</v>
       </c>
       <c r="B67" s="4">
-        <v>2.2829399999999995</v>
+        <v>1.4329399999999999</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -13224,13 +13224,14 @@
       </c>
       <c r="B72" s="4">
         <f>AVERAGE(B65:B71)</f>
-        <v>1.6287342857142859</v>
+        <v>1.395877142857143</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
